--- a/evaluation/results/hybrid/pca/LOF/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9163701067615658</v>
+        <v>0.2686832740213523</v>
       </c>
       <c r="C2">
-        <v>0.04761904761904762</v>
+        <v>0.06378132118451026</v>
       </c>
       <c r="D2">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.04081632653061224</v>
+        <v>0.1199143468950749</v>
       </c>
       <c r="F2">
-        <v>0.03759398496240601</v>
+        <v>0.2540834845735027</v>
       </c>
       <c r="G2">
-        <v>0.03606102635228849</v>
+        <v>0.6391571553994733</v>
       </c>
       <c r="H2">
-        <v>0.4991305510968433</v>
+        <v>0.7873194221508828</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="K2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="L2">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9500924214417745</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9625468164794008</v>
+        <v>0.2303370786516854</v>
       </c>
       <c r="D2">
-        <v>0.9562790697674418</v>
+        <v>0.3744292237442922</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.04761904761904762</v>
+        <v>0.06378132118451026</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.04081632653061224</v>
+        <v>0.1199143468950749</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9163701067615658</v>
+        <v>0.2686832740213523</v>
       </c>
       <c r="C4">
-        <v>0.9163701067615658</v>
+        <v>0.2686832740213523</v>
       </c>
       <c r="D4">
-        <v>0.9163701067615658</v>
+        <v>0.2686832740213523</v>
       </c>
       <c r="E4">
-        <v>0.9163701067615658</v>
+        <v>0.2686832740213523</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4988557345304111</v>
+        <v>0.5318906605922551</v>
       </c>
       <c r="C5">
-        <v>0.4991305510968432</v>
+        <v>0.6151685393258427</v>
       </c>
       <c r="D5">
-        <v>0.4985476981490271</v>
+        <v>0.2471717853196836</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9051293352014963</v>
+        <v>0.9533556530127515</v>
       </c>
       <c r="C6">
-        <v>0.9163701067615658</v>
+        <v>0.2686832740213523</v>
       </c>
       <c r="D6">
-        <v>0.910668826332155</v>
+        <v>0.3617487672464665</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
